--- a/Test Excel File.xlsx
+++ b/Test Excel File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rob/Documents/GitHub/excel-versioning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7B950470-5680-614B-8C86-B2D04D6CA3BD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8190466D-E1F2-0744-AF2A-54199A5A09AA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39520" yWindow="6060" windowWidth="28040" windowHeight="15540" xr2:uid="{BA9F4F92-2D54-2F46-B59B-19103A51AA45}"/>
   </bookViews>
@@ -36,16 +36,16 @@
     <t>a</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
     <t>e</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
   </si>
 </sst>
 </file>
@@ -400,7 +400,7 @@
   <dimension ref="B1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -426,7 +426,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:3">
@@ -434,7 +434,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -442,7 +442,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:3">
@@ -450,7 +450,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
